--- a/Data/Screening_Data.xlsx
+++ b/Data/Screening_Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icracuk-my.sharepoint.com/personal/reuben_frost_icr_ac_uk/Documents/Documents/UK-cancer-trends/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C5F391A-6835-49B6-98E1-804679C86803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{8C5F391A-6835-49B6-98E1-804679C86803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03664151-70B0-4B69-A091-52BF5B8F35C6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{FD99B867-2ED7-4AC9-A608-E7C310AF8395}"/>
+    <workbookView xWindow="-19320" yWindow="5985" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{FD99B867-2ED7-4AC9-A608-E7C310AF8395}"/>
   </bookViews>
   <sheets>
-    <sheet name="England_Breast" sheetId="1" r:id="rId1"/>
-    <sheet name="England_Bowel" sheetId="2" r:id="rId2"/>
-    <sheet name="England_Cervix" sheetId="3" r:id="rId3"/>
+    <sheet name="England_Breast_Uptake" sheetId="1" r:id="rId1"/>
+    <sheet name="England_Bowel_Coverage" sheetId="2" r:id="rId2"/>
+    <sheet name="England_Bowel_Uptake" sheetId="4" r:id="rId3"/>
+    <sheet name="England_Cervix" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="63">
   <si>
     <t>Indicator ID</t>
   </si>
@@ -224,17 +225,19 @@
   </si>
   <si>
     <t>Coverage (50-64)</t>
+  </si>
+  <si>
+    <t>Bowel cancer screening uptake: aged 60 to 74 years old</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,16 +272,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial MT"/>
     </font>
     <font>
       <sz val="12"/>
@@ -399,11 +392,11 @@
   <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -414,23 +407,23 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -441,46 +434,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -489,24 +482,24 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -934,12 +927,12 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AA15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>91340</v>
       </c>
@@ -1072,7 +1065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>91340</v>
       </c>
@@ -1122,7 +1115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>91340</v>
       </c>
@@ -1172,7 +1165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>91340</v>
       </c>
@@ -1222,7 +1215,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>91340</v>
       </c>
@@ -1272,7 +1265,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>91340</v>
       </c>
@@ -1322,7 +1315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>91340</v>
       </c>
@@ -1372,7 +1365,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>91340</v>
       </c>
@@ -1422,7 +1415,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>91340</v>
       </c>
@@ -1472,7 +1465,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>91340</v>
       </c>
@@ -1522,7 +1515,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>91340</v>
       </c>
@@ -1572,7 +1565,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>91340</v>
       </c>
@@ -1622,7 +1615,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>91340</v>
       </c>
@@ -1672,7 +1665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>91340</v>
       </c>
@@ -1737,13 +1730,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A743EDD3-1007-4C45-ABEA-B024FB55C013}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1826,7 +1819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>92600</v>
       </c>
@@ -1882,7 +1875,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>92600</v>
       </c>
@@ -1938,7 +1931,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>92600</v>
       </c>
@@ -1994,7 +1987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>92600</v>
       </c>
@@ -2050,7 +2043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>92600</v>
       </c>
@@ -2106,7 +2099,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>92600</v>
       </c>
@@ -2162,7 +2155,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>92600</v>
       </c>
@@ -2218,7 +2211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>92600</v>
       </c>
@@ -2274,7 +2267,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>92600</v>
       </c>
@@ -2324,7 +2317,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>92600</v>
       </c>
@@ -2386,16 +2379,590 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286F11B5-E75A-4CB1-97DD-DC97A9D5EE5E}">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AA11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>92601</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2">
+        <v>55.558199999999999</v>
+      </c>
+      <c r="N2">
+        <v>55.508899999999997</v>
+      </c>
+      <c r="O2">
+        <v>55.607599999999998</v>
+      </c>
+      <c r="R2">
+        <v>2161943</v>
+      </c>
+      <c r="S2">
+        <v>3891309</v>
+      </c>
+      <c r="X2">
+        <v>20130000</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>92601</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3">
+        <v>58.479300000000002</v>
+      </c>
+      <c r="N3">
+        <v>58.4313</v>
+      </c>
+      <c r="O3">
+        <v>58.527200000000001</v>
+      </c>
+      <c r="R3">
+        <v>2372564</v>
+      </c>
+      <c r="S3">
+        <v>4057104</v>
+      </c>
+      <c r="X3">
+        <v>20140000</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>92601</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4">
+        <v>56.374600000000001</v>
+      </c>
+      <c r="N4">
+        <v>56.326999999999998</v>
+      </c>
+      <c r="O4">
+        <v>56.422199999999997</v>
+      </c>
+      <c r="R4">
+        <v>2349732</v>
+      </c>
+      <c r="S4">
+        <v>4168069</v>
+      </c>
+      <c r="X4">
+        <v>20150000</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>92601</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <v>58.903399999999998</v>
+      </c>
+      <c r="N5">
+        <v>58.856900000000003</v>
+      </c>
+      <c r="O5">
+        <v>58.9499</v>
+      </c>
+      <c r="R5">
+        <v>2531019</v>
+      </c>
+      <c r="S5">
+        <v>4296897</v>
+      </c>
+      <c r="X5">
+        <v>20160000</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>92601</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6">
+        <v>57.602499999999999</v>
+      </c>
+      <c r="N6">
+        <v>57.555999999999997</v>
+      </c>
+      <c r="O6">
+        <v>57.649000000000001</v>
+      </c>
+      <c r="R6">
+        <v>2501061</v>
+      </c>
+      <c r="S6">
+        <v>4341930</v>
+      </c>
+      <c r="X6">
+        <v>20170000</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>92601</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7">
+        <v>60.272599999999997</v>
+      </c>
+      <c r="N7">
+        <v>60.226999999999997</v>
+      </c>
+      <c r="O7">
+        <v>60.318199999999997</v>
+      </c>
+      <c r="R7">
+        <v>2669908</v>
+      </c>
+      <c r="S7">
+        <v>4429721</v>
+      </c>
+      <c r="X7">
+        <v>20180000</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>92601</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8">
+        <v>65.442099999999996</v>
+      </c>
+      <c r="N8">
+        <v>65.397199999999998</v>
+      </c>
+      <c r="O8">
+        <v>65.486999999999995</v>
+      </c>
+      <c r="R8">
+        <v>2823351</v>
+      </c>
+      <c r="S8">
+        <v>4314272</v>
+      </c>
+      <c r="X8">
+        <v>20190000</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>92601</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9">
+        <v>70.715900000000005</v>
+      </c>
+      <c r="N9">
+        <v>70.668999999999997</v>
+      </c>
+      <c r="O9">
+        <v>70.762699999999995</v>
+      </c>
+      <c r="R9">
+        <v>2564575</v>
+      </c>
+      <c r="S9">
+        <v>3626589</v>
+      </c>
+      <c r="X9">
+        <v>20200000</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>92601</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10">
+        <v>69.614599999999996</v>
+      </c>
+      <c r="N10">
+        <v>69.575299999999999</v>
+      </c>
+      <c r="O10">
+        <v>69.653999999999996</v>
+      </c>
+      <c r="R10">
+        <v>3652242</v>
+      </c>
+      <c r="S10">
+        <v>5246371</v>
+      </c>
+      <c r="X10">
+        <v>20210000</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>92601</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11">
+        <v>70.205799999999996</v>
+      </c>
+      <c r="N11">
+        <v>70.163799999999995</v>
+      </c>
+      <c r="O11">
+        <v>70.247799999999998</v>
+      </c>
+      <c r="P11">
+        <v>70.139499999999998</v>
+      </c>
+      <c r="Q11">
+        <v>70.272000000000006</v>
+      </c>
+      <c r="R11">
+        <v>3194565</v>
+      </c>
+      <c r="S11">
+        <v>4550285</v>
+      </c>
+      <c r="X11">
+        <v>20220000</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735B0512-D051-47E8-BF11-C97C92C12FE9}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>50</v>
       </c>
@@ -2433,7 +3000,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -2474,7 +3041,7 @@
         <v>16.238914999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -2515,7 +3082,7 @@
         <v>11.156886999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -2556,7 +3123,7 @@
         <v>68.704633283689205</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -2597,7 +3164,7 @@
         <v>10.806795999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -2638,7 +3205,7 @@
         <v>7.1133329999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -2679,7 +3246,7 @@
         <v>65.822774853897499</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -2720,7 +3287,7 @@
         <v>5.4321190000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -2761,7 +3328,7 @@
         <v>4.0435539999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>

--- a/Data/Screening_Data.xlsx
+++ b/Data/Screening_Data.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icracuk-my.sharepoint.com/personal/reuben_frost_icr_ac_uk/Documents/Documents/UK-cancer-trends/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{8C5F391A-6835-49B6-98E1-804679C86803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03664151-70B0-4B69-A091-52BF5B8F35C6}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{8C5F391A-6835-49B6-98E1-804679C86803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AF2FB68-043A-4D7D-9F26-A58B8B90BAFD}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="5985" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{FD99B867-2ED7-4AC9-A608-E7C310AF8395}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="2" activeTab="4" xr2:uid="{FD99B867-2ED7-4AC9-A608-E7C310AF8395}"/>
   </bookViews>
   <sheets>
     <sheet name="England_Breast_Uptake" sheetId="1" r:id="rId1"/>
     <sheet name="England_Bowel_Coverage" sheetId="2" r:id="rId2"/>
     <sheet name="England_Bowel_Uptake" sheetId="4" r:id="rId3"/>
     <sheet name="England_Cervix" sheetId="3" r:id="rId4"/>
+    <sheet name="Scotland_Breast_Uptake" sheetId="5" r:id="rId5"/>
+    <sheet name="Scotland_Bowel_Uptake" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="87">
   <si>
     <t>Indicator ID</t>
   </si>
@@ -228,16 +230,113 @@
   </si>
   <si>
     <t>Bowel cancer screening uptake: aged 60 to 74 years old</t>
+  </si>
+  <si>
+    <r>
+      <t>Type of invitation</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Routine invitation (first invitation to screening)</t>
+  </si>
+  <si>
+    <t>Routine invitation (previous non-attenders)</t>
+  </si>
+  <si>
+    <t>Routine invitation (within 5yrs of last attendance)</t>
+  </si>
+  <si>
+    <t>Routine invitation (outwith 5yrs of last attendance)</t>
+  </si>
+  <si>
+    <r>
+      <t>All routine invitations</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>2007/09</t>
+  </si>
+  <si>
+    <t>2008/10</t>
+  </si>
+  <si>
+    <t>2009/11</t>
+  </si>
+  <si>
+    <t>2010/12</t>
+  </si>
+  <si>
+    <t>2011/13</t>
+  </si>
+  <si>
+    <t>2012/14</t>
+  </si>
+  <si>
+    <t>2013/15</t>
+  </si>
+  <si>
+    <t>2014/16</t>
+  </si>
+  <si>
+    <t>2015/17</t>
+  </si>
+  <si>
+    <t>2016/18</t>
+  </si>
+  <si>
+    <t>2017/19</t>
+  </si>
+  <si>
+    <t>2018/20</t>
+  </si>
+  <si>
+    <t>2019/21</t>
+  </si>
+  <si>
+    <t>2020/22</t>
+  </si>
+  <si>
+    <t>2021/23</t>
+  </si>
+  <si>
+    <t>Males</t>
+  </si>
+  <si>
+    <t>Females</t>
+  </si>
+  <si>
+    <t>All persons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,8 +430,27 @@
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +465,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
   </fills>
@@ -389,7 +512,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="106">
+  <cellStyleXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -502,13 +625,153 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="106">
+  <cellStyles count="235">
     <cellStyle name="Comma 10" xfId="103" xr:uid="{108FBB97-313C-495F-ACC4-085864F27E3E}"/>
     <cellStyle name="Comma 11" xfId="2" xr:uid="{A56342EF-8F32-47F5-A0D3-467AD00DE3FC}"/>
+    <cellStyle name="Comma 12" xfId="234" xr:uid="{E7A3C522-9696-4F06-B6EA-34A9AD5E0963}"/>
     <cellStyle name="Comma 2" xfId="3" xr:uid="{B3D3A99F-37F0-4353-AF68-06BCB4003252}"/>
     <cellStyle name="Comma 2 2" xfId="18" xr:uid="{7D9077A8-A9B7-436C-8747-9D3E99319390}"/>
     <cellStyle name="Comma 2 2 2" xfId="63" xr:uid="{D51F7BA8-39B5-4FF3-BE4E-78FA401CBC5E}"/>
@@ -559,22 +822,71 @@
     <cellStyle name="Hyperlink 5" xfId="73" xr:uid="{7A60E566-7D5B-42C7-BE35-8254DC0A10FB}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="37" xr:uid="{C18F2FE9-8722-411B-B33F-6398919D5FC1}"/>
+    <cellStyle name="Normal 100" xfId="199" xr:uid="{04B2BFF6-F101-4F3C-A1C1-E70235AFE0F0}"/>
+    <cellStyle name="Normal 101" xfId="200" xr:uid="{A8DB66A3-FF3A-4CF2-B329-E4B92C61A8DD}"/>
+    <cellStyle name="Normal 102" xfId="201" xr:uid="{6ED65450-23AA-4FBF-8528-52D12384FA2A}"/>
+    <cellStyle name="Normal 103" xfId="202" xr:uid="{98D334CA-6EE0-4DED-A526-F76134E8C370}"/>
+    <cellStyle name="Normal 104" xfId="203" xr:uid="{9BCBA519-624E-428B-AD4A-25AB6C675C88}"/>
+    <cellStyle name="Normal 105" xfId="204" xr:uid="{770F9E24-03DA-40FC-B76B-62A30A4F5AA4}"/>
+    <cellStyle name="Normal 106" xfId="206" xr:uid="{21A22096-0B0C-49EC-98A6-14AE011D98B1}"/>
+    <cellStyle name="Normal 107" xfId="207" xr:uid="{1437BCD5-2AD3-4497-8F3C-E5F551137B82}"/>
+    <cellStyle name="Normal 108" xfId="208" xr:uid="{EEB7C2E2-E226-408C-857A-CE0C1D1009F4}"/>
+    <cellStyle name="Normal 109" xfId="209" xr:uid="{1B08E725-16C4-48A0-AEC8-2706DDD1230E}"/>
     <cellStyle name="Normal 11" xfId="36" xr:uid="{ECE08BE9-CC85-46A4-BDA3-A2F776B04B04}"/>
     <cellStyle name="Normal 11 2" xfId="47" xr:uid="{9C062C4C-46C2-40AB-B446-6FA5261D9336}"/>
     <cellStyle name="Normal 11 2 2" xfId="67" xr:uid="{B38DC46A-1D1C-49B2-A7DC-9D3D6D681573}"/>
     <cellStyle name="Normal 11 2 3" xfId="57" xr:uid="{C2C1B7AE-237E-4ABB-AAAF-B91C03F69737}"/>
     <cellStyle name="Normal 11 3" xfId="64" xr:uid="{F9273966-1D32-4D4C-A735-6038283818B9}"/>
     <cellStyle name="Normal 11 4" xfId="54" xr:uid="{FEC1BC3B-2975-4ED3-9621-50477BBC211A}"/>
+    <cellStyle name="Normal 11 5" xfId="110" xr:uid="{F426BC5A-8F6D-4CF2-AB3E-409955F8F506}"/>
+    <cellStyle name="Normal 110" xfId="210" xr:uid="{9A415660-1F11-47D2-AEDA-358C79A3C55D}"/>
+    <cellStyle name="Normal 111" xfId="211" xr:uid="{0CA53BCB-276D-4F75-8ACB-F95D7E3AA405}"/>
+    <cellStyle name="Normal 112" xfId="212" xr:uid="{26133671-4F18-4E1C-A0C2-0675B6D9664D}"/>
+    <cellStyle name="Normal 113" xfId="213" xr:uid="{1A51A3A4-6FBB-4F23-9D06-ED9914E99166}"/>
+    <cellStyle name="Normal 114" xfId="214" xr:uid="{8447588E-643F-48CA-98F8-EBF6EC952D56}"/>
+    <cellStyle name="Normal 115" xfId="215" xr:uid="{A21DC0C6-7A2F-4168-8CFD-0DC32C8FC0A3}"/>
+    <cellStyle name="Normal 116" xfId="216" xr:uid="{5C1132E5-A560-4097-8A1C-0A7263444097}"/>
+    <cellStyle name="Normal 117" xfId="228" xr:uid="{F70D6D37-A97A-4CA1-AE96-9EBF10AB4C4B}"/>
+    <cellStyle name="Normal 118" xfId="217" xr:uid="{18949E53-CAC5-48EB-BF66-C5722622D400}"/>
+    <cellStyle name="Normal 119" xfId="218" xr:uid="{A18A44C2-D990-4810-9D62-36E7D76BB565}"/>
     <cellStyle name="Normal 12" xfId="85" xr:uid="{8B370D20-FE05-4FDE-9240-CFB268286ABD}"/>
+    <cellStyle name="Normal 12 2" xfId="111" xr:uid="{ECEBFE2C-E217-44C1-859B-5604E70D5C3F}"/>
+    <cellStyle name="Normal 120" xfId="219" xr:uid="{88A08C0F-F48B-42EB-A5EB-5DA297004ECC}"/>
+    <cellStyle name="Normal 121" xfId="220" xr:uid="{6DEB9909-3899-4A97-B022-AB632A936944}"/>
+    <cellStyle name="Normal 122" xfId="221" xr:uid="{294CCE5C-D75A-447A-A43E-DB8CA4540F2B}"/>
+    <cellStyle name="Normal 123" xfId="222" xr:uid="{422E65CE-CD9A-4E31-8C5D-95B7E0EE6651}"/>
+    <cellStyle name="Normal 124" xfId="223" xr:uid="{2CD231BD-0753-4913-8CEA-1F7F9B542111}"/>
+    <cellStyle name="Normal 125" xfId="106" xr:uid="{72196300-89E3-44D5-8A03-395B0F11D807}"/>
+    <cellStyle name="Normal 127" xfId="224" xr:uid="{E26DD5E6-BF45-4366-8108-D29079BFD651}"/>
     <cellStyle name="Normal 13" xfId="104" xr:uid="{DEAB035D-7FA5-4BC1-A9D3-474EB71B1279}"/>
+    <cellStyle name="Normal 13 2" xfId="112" xr:uid="{6E263D93-73FD-4031-8146-88E80DA91117}"/>
+    <cellStyle name="Normal 133" xfId="225" xr:uid="{5C256D13-3753-47FA-A9A8-33916A53E291}"/>
+    <cellStyle name="Normal 134" xfId="226" xr:uid="{CB1217F6-949F-41C6-8506-438210481DD5}"/>
     <cellStyle name="Normal 14" xfId="1" xr:uid="{2A798545-4C5F-4302-B457-5FF05EB19A3C}"/>
+    <cellStyle name="Normal 14 2" xfId="127" xr:uid="{F539BB61-EC74-4F1D-886C-98AC05F9DF89}"/>
+    <cellStyle name="Normal 15" xfId="118" xr:uid="{29096597-748B-4416-999B-F6402F12BB0B}"/>
+    <cellStyle name="Normal 16" xfId="119" xr:uid="{646822A5-5709-44AC-817C-FB711059AB24}"/>
+    <cellStyle name="Normal 17" xfId="120" xr:uid="{224FBF21-6F6E-4DF8-9398-7AE26B1EE33E}"/>
+    <cellStyle name="Normal 18" xfId="128" xr:uid="{6F053D5E-3FD6-45E7-9796-B43F4245334E}"/>
+    <cellStyle name="Normal 19" xfId="113" xr:uid="{56346045-55D5-4B1F-A940-F693918D5ED6}"/>
     <cellStyle name="Normal 2" xfId="7" xr:uid="{CE5DC22A-1D4A-4A05-B890-720FBC9BEB11}"/>
     <cellStyle name="Normal 2 2" xfId="20" xr:uid="{A0519F2F-09BD-486E-828B-E06897218428}"/>
+    <cellStyle name="Normal 2 2 2" xfId="126" xr:uid="{D0456ABA-FFBD-4E7A-8C6C-F140ACFEC0BC}"/>
     <cellStyle name="Normal 2 3" xfId="21" xr:uid="{1CA8B897-4D9B-4561-98F1-091F0FC9A650}"/>
     <cellStyle name="Normal 2 4" xfId="46" xr:uid="{AC61E5F7-4349-427A-80C9-B927A669D782}"/>
     <cellStyle name="Normal 2 4 2" xfId="84" xr:uid="{B99F32AE-7D0B-4E18-A136-3F8EF039D90C}"/>
     <cellStyle name="Normal 2 5" xfId="86" xr:uid="{2B4D90C4-4FE2-4006-B4CE-E74F25A48234}"/>
     <cellStyle name="Normal 2 6" xfId="105" xr:uid="{212129B0-D512-4394-AE49-F910D35E2B3F}"/>
+    <cellStyle name="Normal 20" xfId="114" xr:uid="{2EBA4580-C39B-42F8-B982-CA83B751E7DF}"/>
+    <cellStyle name="Normal 21" xfId="115" xr:uid="{FAA4E9B3-7B72-4E03-B358-13CD40010A17}"/>
+    <cellStyle name="Normal 22" xfId="116" xr:uid="{6162C0EA-3B8C-41F1-910C-471490676AF9}"/>
+    <cellStyle name="Normal 23" xfId="117" xr:uid="{4830F9D6-140E-4221-84EA-1CDC78A10D71}"/>
+    <cellStyle name="Normal 24" xfId="121" xr:uid="{BB14182F-BEBE-4812-AE51-C6D992A3AF93}"/>
+    <cellStyle name="Normal 25" xfId="122" xr:uid="{C4917C27-9780-43AB-9F5A-DCBB10BE3787}"/>
+    <cellStyle name="Normal 26" xfId="129" xr:uid="{E81BAD97-2C92-4571-BE8F-8A1C53560C16}"/>
+    <cellStyle name="Normal 27" xfId="123" xr:uid="{AC87C497-ACC5-433C-9C3B-0C72CED90414}"/>
+    <cellStyle name="Normal 28" xfId="124" xr:uid="{DBC55E20-948B-4557-A17F-220A8984A4C0}"/>
+    <cellStyle name="Normal 29" xfId="125" xr:uid="{8B04E39D-0943-4178-93D8-B73C74A4E1E9}"/>
     <cellStyle name="Normal 3" xfId="8" xr:uid="{4D98B67C-1553-4E63-9EB4-D21A06A9AB18}"/>
     <cellStyle name="Normal 3 2" xfId="15" xr:uid="{3B4306E4-3B39-43F5-A16B-A62468ADEA7F}"/>
     <cellStyle name="Normal 3 2 2" xfId="24" xr:uid="{61623584-B744-4F49-815A-64E08E080B43}"/>
@@ -583,19 +895,93 @@
     <cellStyle name="Normal 3 3" xfId="25" xr:uid="{A2FED8BC-2CDA-4B57-82CC-D9CF33CDC84B}"/>
     <cellStyle name="Normal 3 4" xfId="22" xr:uid="{071F1AEB-129C-41F2-BC1A-3C747D9EC38C}"/>
     <cellStyle name="Normal 3 5" xfId="75" xr:uid="{54C203B1-6020-4363-8F49-63332C7D98AE}"/>
+    <cellStyle name="Normal 30" xfId="130" xr:uid="{77E980B2-B7D6-4C3B-868A-5F629FE1F8FC}"/>
+    <cellStyle name="Normal 31" xfId="131" xr:uid="{CAA0B47F-4AD8-4BE6-AFAB-C8E2F389F602}"/>
+    <cellStyle name="Normal 32" xfId="132" xr:uid="{BD2D0285-1D76-4BD3-B2E6-B317126EBF5A}"/>
+    <cellStyle name="Normal 33" xfId="133" xr:uid="{72328C68-1AF7-45E1-9C44-CA19F762F033}"/>
+    <cellStyle name="Normal 34" xfId="136" xr:uid="{DFACFEC4-1299-4B81-984E-B01454122BD8}"/>
+    <cellStyle name="Normal 35" xfId="134" xr:uid="{57DC3D21-BFF3-436F-8446-661154ED1A9E}"/>
+    <cellStyle name="Normal 36" xfId="135" xr:uid="{0CC626A4-A821-4F8B-9AF6-7CDC160272A3}"/>
+    <cellStyle name="Normal 37" xfId="137" xr:uid="{AC3DC412-2811-4AD5-98E0-C67F521C496B}"/>
+    <cellStyle name="Normal 38" xfId="138" xr:uid="{C3B18C55-0CA6-431A-BE19-6FB05B8BA8DC}"/>
+    <cellStyle name="Normal 39" xfId="139" xr:uid="{3907D0B4-22AB-4F5F-930F-D1221551819C}"/>
     <cellStyle name="Normal 4" xfId="26" xr:uid="{BD3E306C-9129-4BE0-8938-71F1787C4C68}"/>
+    <cellStyle name="Normal 4 2" xfId="227" xr:uid="{BBF49E06-A330-476D-9C16-DB98520818E0}"/>
+    <cellStyle name="Normal 4 3" xfId="107" xr:uid="{BE918C41-3AAC-4BCE-839F-177EE7A82A5B}"/>
+    <cellStyle name="Normal 40" xfId="140" xr:uid="{2330F604-3D5A-415C-B697-7E54AEDB4D80}"/>
+    <cellStyle name="Normal 41" xfId="142" xr:uid="{96BA853B-DD10-4634-AEF0-7FF6F719EEBD}"/>
+    <cellStyle name="Normal 42" xfId="141" xr:uid="{95CD8F23-36A2-49BF-999D-C0CD4FE0A509}"/>
+    <cellStyle name="Normal 43" xfId="143" xr:uid="{3BCB9D8C-95EF-498C-B76E-716F1DF65F49}"/>
+    <cellStyle name="Normal 44" xfId="144" xr:uid="{15E90411-BE03-45AF-BE72-F5FD28636DD1}"/>
+    <cellStyle name="Normal 45" xfId="145" xr:uid="{3102ADE0-95AD-4E09-9C6F-4CFB688879E8}"/>
+    <cellStyle name="Normal 46" xfId="146" xr:uid="{8CCD084D-2E18-482D-94BC-D155759ACB6F}"/>
+    <cellStyle name="Normal 47" xfId="147" xr:uid="{6696311C-A83C-4091-9978-23849BE95CDB}"/>
+    <cellStyle name="Normal 48" xfId="148" xr:uid="{707BE5B6-A339-40DD-BDE2-031C46198019}"/>
+    <cellStyle name="Normal 49" xfId="149" xr:uid="{20604E52-F8B9-4D2C-A2CE-E68F551A8FA8}"/>
     <cellStyle name="Normal 5" xfId="27" xr:uid="{68AA5F97-4C29-4BCC-AEE5-08754B13C9C5}"/>
+    <cellStyle name="Normal 5 2" xfId="108" xr:uid="{89DB03B7-2F85-499F-AD57-93CB9DE2442C}"/>
+    <cellStyle name="Normal 50" xfId="150" xr:uid="{D1E12EB5-7221-4B5F-9999-BC7960EA0046}"/>
+    <cellStyle name="Normal 51" xfId="151" xr:uid="{F04FDFA5-3573-481D-BDD6-D463D3548D62}"/>
+    <cellStyle name="Normal 52" xfId="152" xr:uid="{37312E4C-4551-42E8-A0AB-6E2FB4EEF60E}"/>
+    <cellStyle name="Normal 53" xfId="153" xr:uid="{1C62252A-6417-4698-9D4C-60814C4CB809}"/>
+    <cellStyle name="Normal 54" xfId="154" xr:uid="{AC82E418-F762-49DF-AC3C-8ECFFF952897}"/>
+    <cellStyle name="Normal 55" xfId="155" xr:uid="{DF0F1C8E-FD89-47C1-9169-003133DCF0C7}"/>
+    <cellStyle name="Normal 56" xfId="156" xr:uid="{E9EA3539-8150-4598-8F74-EBE3B3944F57}"/>
+    <cellStyle name="Normal 57" xfId="157" xr:uid="{5FCC8AF8-9238-4832-9FE6-758EF5C29E17}"/>
+    <cellStyle name="Normal 58" xfId="158" xr:uid="{C77DFD9E-70CB-46A3-831F-7C4252535F80}"/>
+    <cellStyle name="Normal 59" xfId="159" xr:uid="{B2A983BA-6FBE-41C8-A8A1-39AE262B12FD}"/>
     <cellStyle name="Normal 6" xfId="28" xr:uid="{AD2C2621-8B30-4099-8AD9-F4AACACB10FB}"/>
     <cellStyle name="Normal 6 2" xfId="29" xr:uid="{82A904C9-4959-4B1C-97FA-F1D160EF1EE8}"/>
     <cellStyle name="Normal 6 2 2" xfId="81" xr:uid="{E3506A50-06C2-46FB-8F04-9E10776C3C59}"/>
     <cellStyle name="Normal 6 3" xfId="30" xr:uid="{B1E0DCBC-E5FE-4573-A2BE-DCFD37101336}"/>
     <cellStyle name="Normal 6 3 2" xfId="82" xr:uid="{3FEE6EAD-FDBD-49DF-BE80-8F24334BB9A4}"/>
     <cellStyle name="Normal 6 4" xfId="80" xr:uid="{4B0D3015-3B2D-4848-82EB-B3CAB330AA26}"/>
+    <cellStyle name="Normal 6 5" xfId="109" xr:uid="{5E63EAE8-C1CC-46C9-AA0A-645C9B48A8C3}"/>
+    <cellStyle name="Normal 60" xfId="160" xr:uid="{EB6C9A55-AD78-4334-A9FB-37314C041E61}"/>
+    <cellStyle name="Normal 61" xfId="161" xr:uid="{A281A202-B530-4BF4-BEB4-39A190368C85}"/>
+    <cellStyle name="Normal 62" xfId="162" xr:uid="{D71D5164-2162-4ACB-B051-767BA2E544CD}"/>
+    <cellStyle name="Normal 63" xfId="205" xr:uid="{0D02C9D6-3772-4991-A4AC-7E85432A00A4}"/>
+    <cellStyle name="Normal 64" xfId="163" xr:uid="{A649D2DD-BD6E-499B-80F4-88F875ACF0F9}"/>
+    <cellStyle name="Normal 65" xfId="164" xr:uid="{FEE05C86-E487-4086-BFCD-86E1243CB0E1}"/>
+    <cellStyle name="Normal 66" xfId="165" xr:uid="{CAB0B9FD-D54D-42E0-9C36-570188B31FD6}"/>
+    <cellStyle name="Normal 67" xfId="166" xr:uid="{AA2371AA-F82B-4908-8FF9-E30286F851D0}"/>
+    <cellStyle name="Normal 68" xfId="167" xr:uid="{32A60616-DD53-47A7-945B-B64C869FE61A}"/>
+    <cellStyle name="Normal 69" xfId="168" xr:uid="{9899BE9B-DAD7-4ABF-AFAA-B44F1FA15BD5}"/>
     <cellStyle name="Normal 7" xfId="31" xr:uid="{D5BE60E0-369A-49F9-81ED-85CF0982F740}"/>
     <cellStyle name="Normal 7 2" xfId="32" xr:uid="{3B37961C-3107-4221-839C-6D1C38D2EF61}"/>
+    <cellStyle name="Normal 70" xfId="169" xr:uid="{E82BC47B-5D0D-4738-A0AD-3211A38D302D}"/>
+    <cellStyle name="Normal 71" xfId="170" xr:uid="{92BD01D7-209A-4C52-87E3-E37200C4D00B}"/>
+    <cellStyle name="Normal 72" xfId="171" xr:uid="{B1A682FF-E181-4EFB-A9F8-065C4972DAC5}"/>
+    <cellStyle name="Normal 73" xfId="172" xr:uid="{08BB344B-7C76-4D98-84FB-F92FA3513788}"/>
+    <cellStyle name="Normal 74" xfId="173" xr:uid="{CDB4810E-B88D-4D35-BD57-713B8A11663A}"/>
+    <cellStyle name="Normal 75" xfId="174" xr:uid="{7A626E2F-738A-4453-A983-AF71EC699F92}"/>
+    <cellStyle name="Normal 76" xfId="175" xr:uid="{2B55910E-D255-4921-B31B-79B0B373BD1A}"/>
+    <cellStyle name="Normal 77" xfId="176" xr:uid="{50A487EE-A98C-4211-BC69-B3C3C92597DE}"/>
+    <cellStyle name="Normal 78" xfId="177" xr:uid="{28CE41F6-9CFE-4FE8-AF87-6A690F422E1C}"/>
+    <cellStyle name="Normal 79" xfId="178" xr:uid="{FB2162EB-2FDA-4305-890E-B21AB2FC5809}"/>
     <cellStyle name="Normal 8" xfId="33" xr:uid="{B5D20549-3CCD-478A-BEAD-2A6927D12340}"/>
     <cellStyle name="Normal 8 2" xfId="34" xr:uid="{7D8DD395-634F-4F98-B716-B1937B990195}"/>
+    <cellStyle name="Normal 80" xfId="179" xr:uid="{1D303CFC-78D4-418E-926A-A7A3D9759DBA}"/>
+    <cellStyle name="Normal 81" xfId="180" xr:uid="{1DCD56BD-D6A9-42C6-A91A-CE7A10E7EBB3}"/>
+    <cellStyle name="Normal 82" xfId="181" xr:uid="{03F1A9BB-C2AE-4F79-9079-22526B6FC3CC}"/>
+    <cellStyle name="Normal 83" xfId="182" xr:uid="{084C63B1-457A-4033-B341-0A8844801766}"/>
+    <cellStyle name="Normal 84" xfId="183" xr:uid="{9022AF8E-4183-42D9-8037-B6BFD5635EF4}"/>
+    <cellStyle name="Normal 85" xfId="184" xr:uid="{F1B23D08-2918-4741-A716-50AB913989F8}"/>
+    <cellStyle name="Normal 86" xfId="185" xr:uid="{F41FC2DC-6E00-4CE5-B3FD-CD91D9B7D096}"/>
+    <cellStyle name="Normal 87" xfId="186" xr:uid="{D1D1C2C1-0C7D-438E-934C-F187E5C15F68}"/>
+    <cellStyle name="Normal 88" xfId="187" xr:uid="{3FF36C9B-90DB-4358-BAA6-3B6C579C91DC}"/>
+    <cellStyle name="Normal 89" xfId="188" xr:uid="{8AE8EEDD-5E33-4BE1-B25F-175B177BEB7E}"/>
     <cellStyle name="Normal 9" xfId="35" xr:uid="{4E9E7608-DABA-426C-8D41-A95245AAB057}"/>
+    <cellStyle name="Normal 90" xfId="189" xr:uid="{03AF6C54-EE08-4380-B281-6507098533B3}"/>
+    <cellStyle name="Normal 91" xfId="190" xr:uid="{D92971A0-390E-486B-96CD-C16E9ADFFD42}"/>
+    <cellStyle name="Normal 92" xfId="191" xr:uid="{1C0CC57E-EF3A-409B-9B57-F80F03CBA9A3}"/>
+    <cellStyle name="Normal 93" xfId="192" xr:uid="{388EF8FA-EB5F-4FD1-BBEB-C2011FB57DBE}"/>
+    <cellStyle name="Normal 94" xfId="193" xr:uid="{DF32AE6A-C042-47B4-B5F3-13BD18EE3B9B}"/>
+    <cellStyle name="Normal 95" xfId="194" xr:uid="{08AA2906-46F2-4F63-8AF3-A00C7201C78B}"/>
+    <cellStyle name="Normal 96" xfId="195" xr:uid="{A93D741E-5CD1-437E-9972-8ACCC888EE82}"/>
+    <cellStyle name="Normal 97" xfId="196" xr:uid="{1DBFCA1B-2544-4C81-AE4B-B45B24E3C85F}"/>
+    <cellStyle name="Normal 98" xfId="197" xr:uid="{F264E5F6-53DF-4BA7-8BE3-BA7D9E6B52C7}"/>
+    <cellStyle name="Normal 99" xfId="198" xr:uid="{44EB63F6-8B56-4B97-8474-DD0C62F82A21}"/>
     <cellStyle name="Note 2" xfId="9" xr:uid="{37D42A3B-77AB-4DE0-84F2-C91500786C3C}"/>
     <cellStyle name="Note 2 2" xfId="16" xr:uid="{B5FE2181-239F-4D2E-B7D7-8F3BCF670306}"/>
     <cellStyle name="Note 2 2 2" xfId="79" xr:uid="{2FD642EA-6A52-4216-85EC-BBBB403F706F}"/>
@@ -613,6 +999,11 @@
     <cellStyle name="Percent 4" xfId="39" xr:uid="{4C8496B9-FF8F-4C4D-BA00-161FB980FF02}"/>
     <cellStyle name="Percent 5" xfId="45" xr:uid="{9A4B4A73-390D-478E-8D81-F5E8CEAC9A0B}"/>
     <cellStyle name="Percent 6" xfId="10" xr:uid="{3E2C9C9A-3CF1-4097-A05B-9B2716E47EC2}"/>
+    <cellStyle name="XLConnect.Boolean" xfId="232" xr:uid="{1F07440A-777B-49E6-80B9-6AEF3DE7FD66}"/>
+    <cellStyle name="XLConnect.DateTime" xfId="233" xr:uid="{04C2F914-5A76-4A99-9600-B083EF20B405}"/>
+    <cellStyle name="XLConnect.Header" xfId="229" xr:uid="{3245F9A5-865F-46DF-A51E-DCAA086DEA6A}"/>
+    <cellStyle name="XLConnect.Numeric" xfId="231" xr:uid="{A6EE8543-FFFC-480D-AA57-07C88A9E320C}"/>
+    <cellStyle name="XLConnect.String" xfId="230" xr:uid="{408E5E43-18C2-4D40-B768-AB9938CC38B7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -930,9 +1321,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>91340</v>
       </c>
@@ -1065,7 +1456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>91340</v>
       </c>
@@ -1115,7 +1506,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>91340</v>
       </c>
@@ -1165,7 +1556,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>91340</v>
       </c>
@@ -1215,7 +1606,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>91340</v>
       </c>
@@ -1265,7 +1656,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>91340</v>
       </c>
@@ -1315,7 +1706,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>91340</v>
       </c>
@@ -1365,7 +1756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>91340</v>
       </c>
@@ -1415,7 +1806,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>91340</v>
       </c>
@@ -1465,7 +1856,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>91340</v>
       </c>
@@ -1515,7 +1906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>91340</v>
       </c>
@@ -1565,7 +1956,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>91340</v>
       </c>
@@ -1615,7 +2006,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>91340</v>
       </c>
@@ -1665,7 +2056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>91340</v>
       </c>
@@ -1730,13 +2121,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A743EDD3-1007-4C45-ABEA-B024FB55C013}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1819,7 +2210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>92600</v>
       </c>
@@ -1875,7 +2266,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>92600</v>
       </c>
@@ -1931,7 +2322,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>92600</v>
       </c>
@@ -1987,7 +2378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>92600</v>
       </c>
@@ -2043,7 +2434,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>92600</v>
       </c>
@@ -2099,7 +2490,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>92600</v>
       </c>
@@ -2155,7 +2546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>92600</v>
       </c>
@@ -2211,7 +2602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>92600</v>
       </c>
@@ -2267,7 +2658,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>92600</v>
       </c>
@@ -2317,7 +2708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>92600</v>
       </c>
@@ -2386,9 +2777,9 @@
       <selection sqref="A1:AA11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2471,7 +2862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>92601</v>
       </c>
@@ -2518,7 +2909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>92601</v>
       </c>
@@ -2565,7 +2956,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>92601</v>
       </c>
@@ -2612,7 +3003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>92601</v>
       </c>
@@ -2659,7 +3050,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>92601</v>
       </c>
@@ -2706,7 +3097,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>92601</v>
       </c>
@@ -2753,7 +3144,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>92601</v>
       </c>
@@ -2800,7 +3191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>92601</v>
       </c>
@@ -2847,7 +3238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>92601</v>
       </c>
@@ -2894,7 +3285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>92601</v>
       </c>
@@ -2960,9 +3351,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>50</v>
       </c>
@@ -3000,7 +3391,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -3041,7 +3432,7 @@
         <v>16.238914999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -3082,7 +3473,7 @@
         <v>11.156886999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -3123,7 +3514,7 @@
         <v>68.704633283689205</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3164,7 +3555,7 @@
         <v>10.806795999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -3205,7 +3596,7 @@
         <v>7.1133329999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -3246,7 +3637,7 @@
         <v>65.822774853897499</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -3287,7 +3678,7 @@
         <v>5.4321190000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -3328,7 +3719,7 @@
         <v>4.0435539999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3367,6 +3758,425 @@
       </c>
       <c r="M10">
         <v>74.437875900730447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9076944-121A-493C-A4F1-80BE527339F2}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="C2">
+        <v>70.532012897282357</v>
+      </c>
+      <c r="D2">
+        <v>70.787015355796015</v>
+      </c>
+      <c r="E2">
+        <v>69.517700000000005</v>
+      </c>
+      <c r="F2">
+        <v>67.267700000000005</v>
+      </c>
+      <c r="G2">
+        <v>68.156527055946185</v>
+      </c>
+      <c r="H2">
+        <v>70.02878816533233</v>
+      </c>
+      <c r="I2">
+        <v>75.220600000000005</v>
+      </c>
+      <c r="J2">
+        <v>74.8947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>17.671104882036907</v>
+      </c>
+      <c r="D3">
+        <v>18.984465377623533</v>
+      </c>
+      <c r="E3">
+        <v>30.756900000000002</v>
+      </c>
+      <c r="F3">
+        <v>21.127549507397276</v>
+      </c>
+      <c r="G3">
+        <v>23.773676542010687</v>
+      </c>
+      <c r="H3">
+        <v>22.054747054747054</v>
+      </c>
+      <c r="I3">
+        <v>29.3</v>
+      </c>
+      <c r="J3">
+        <v>31.038239999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>86.3</v>
+      </c>
+      <c r="C4">
+        <v>87.237123492461464</v>
+      </c>
+      <c r="D4">
+        <v>87.533329867274716</v>
+      </c>
+      <c r="E4">
+        <v>87.312899999999999</v>
+      </c>
+      <c r="F4">
+        <v>86.684517226436938</v>
+      </c>
+      <c r="G4">
+        <v>88.357288602527049</v>
+      </c>
+      <c r="H4">
+        <v>87.512560966642965</v>
+      </c>
+      <c r="I4">
+        <v>89.2</v>
+      </c>
+      <c r="J4">
+        <v>90.398380000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>36.4</v>
+      </c>
+      <c r="C5">
+        <v>38.778061640484864</v>
+      </c>
+      <c r="D5">
+        <v>38.182129212522099</v>
+      </c>
+      <c r="E5">
+        <v>43.150260900327233</v>
+      </c>
+      <c r="F5">
+        <v>39.267233413417117</v>
+      </c>
+      <c r="G5">
+        <v>42.841179614244766</v>
+      </c>
+      <c r="H5">
+        <v>43.181170338396385</v>
+      </c>
+      <c r="I5">
+        <v>50.4</v>
+      </c>
+      <c r="J5">
+        <v>58.375050000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="C6">
+        <v>72.855452740102251</v>
+      </c>
+      <c r="D6">
+        <v>72.7648178620979</v>
+      </c>
+      <c r="E6">
+        <v>72.090961247587742</v>
+      </c>
+      <c r="F6">
+        <v>71.203318519454072</v>
+      </c>
+      <c r="G6">
+        <v>73.427410935536358</v>
+      </c>
+      <c r="H6">
+        <v>72.001837159514338</v>
+      </c>
+      <c r="I6">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J6">
+        <v>76.518479999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B760819-D9BF-490E-8A38-8DBC2E7ABF9D}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2">
+        <v>50.0825683338972</v>
+      </c>
+      <c r="C2">
+        <v>50.1038506668785</v>
+      </c>
+      <c r="D2">
+        <v>51.066483706034099</v>
+      </c>
+      <c r="E2">
+        <v>51.699440671734898</v>
+      </c>
+      <c r="F2">
+        <v>52.745328443088098</v>
+      </c>
+      <c r="G2">
+        <v>54.2546414755924</v>
+      </c>
+      <c r="H2">
+        <v>54.925153865585401</v>
+      </c>
+      <c r="I2">
+        <v>54.041621728122898</v>
+      </c>
+      <c r="J2">
+        <v>53.103093757592703</v>
+      </c>
+      <c r="K2">
+        <v>54.922716462298098</v>
+      </c>
+      <c r="L2">
+        <v>59.302331836731597</v>
+      </c>
+      <c r="M2">
+        <v>61.534511092851297</v>
+      </c>
+      <c r="N2">
+        <v>63.128365206905301</v>
+      </c>
+      <c r="O2">
+        <v>64.583233673834798</v>
+      </c>
+      <c r="P2">
+        <v>63.601255379308597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <v>57.438710064137098</v>
+      </c>
+      <c r="C3">
+        <v>57.2564975739974</v>
+      </c>
+      <c r="D3">
+        <v>57.907704911800003</v>
+      </c>
+      <c r="E3">
+        <v>58.116465660677797</v>
+      </c>
+      <c r="F3">
+        <v>58.473783802261202</v>
+      </c>
+      <c r="G3">
+        <v>59.821041369880298</v>
+      </c>
+      <c r="H3">
+        <v>60.841209170691798</v>
+      </c>
+      <c r="I3">
+        <v>60.298497584221302</v>
+      </c>
+      <c r="J3">
+        <v>59.406091930305003</v>
+      </c>
+      <c r="K3">
+        <v>60.637869473005999</v>
+      </c>
+      <c r="L3">
+        <v>64.293720796476904</v>
+      </c>
+      <c r="M3">
+        <v>66.091924517520198</v>
+      </c>
+      <c r="N3">
+        <v>67.462130840094204</v>
+      </c>
+      <c r="O3">
+        <v>69.340430438415098</v>
+      </c>
+      <c r="P3">
+        <v>68.629663644251394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4">
+        <v>53.854277843280798</v>
+      </c>
+      <c r="C4">
+        <v>53.767791181256896</v>
+      </c>
+      <c r="D4">
+        <v>54.569828823368702</v>
+      </c>
+      <c r="E4">
+        <v>54.981831067972799</v>
+      </c>
+      <c r="F4">
+        <v>55.6687600529851</v>
+      </c>
+      <c r="G4">
+        <v>57.088008797035698</v>
+      </c>
+      <c r="H4">
+        <v>57.933908645993903</v>
+      </c>
+      <c r="I4">
+        <v>57.220001669850397</v>
+      </c>
+      <c r="J4">
+        <v>56.301590792870101</v>
+      </c>
+      <c r="K4">
+        <v>57.8186887602659</v>
+      </c>
+      <c r="L4">
+        <v>61.828995848021101</v>
+      </c>
+      <c r="M4">
+        <v>63.838619687220003</v>
+      </c>
+      <c r="N4">
+        <v>65.319826254182502</v>
+      </c>
+      <c r="O4">
+        <v>66.9923358199907</v>
+      </c>
+      <c r="P4">
+        <v>66.142025809356198</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Screening_Data.xlsx
+++ b/Data/Screening_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icracuk-my.sharepoint.com/personal/reuben_frost_icr_ac_uk/Documents/Documents/UK-cancer-trends/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{8C5F391A-6835-49B6-98E1-804679C86803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AF2FB68-043A-4D7D-9F26-A58B8B90BAFD}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{8C5F391A-6835-49B6-98E1-804679C86803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E558FA59-9C32-4158-A4DF-B0B6DDD27716}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="2" activeTab="4" xr2:uid="{FD99B867-2ED7-4AC9-A608-E7C310AF8395}"/>
+    <workbookView xWindow="-38520" yWindow="105" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{FD99B867-2ED7-4AC9-A608-E7C310AF8395}"/>
   </bookViews>
   <sheets>
     <sheet name="England_Breast_Uptake" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="England_Cervix" sheetId="3" r:id="rId4"/>
     <sheet name="Scotland_Breast_Uptake" sheetId="5" r:id="rId5"/>
     <sheet name="Scotland_Bowel_Uptake" sheetId="6" r:id="rId6"/>
+    <sheet name="Wales_Breast_Uptake" sheetId="7" r:id="rId7"/>
+    <sheet name="Wales_Bowel_Uptake" sheetId="9" r:id="rId8"/>
+    <sheet name="NIreland_Breast_Uptake" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="89">
   <si>
     <t>Indicator ID</t>
   </si>
@@ -326,15 +329,20 @@
   <si>
     <t>All persons</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Uptake</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -760,10 +768,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1019,9 +1027,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1059,7 +1067,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1165,7 +1173,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1307,7 +1315,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1318,12 +1326,12 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>91340</v>
       </c>
@@ -1456,7 +1464,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>91340</v>
       </c>
@@ -1506,7 +1514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>91340</v>
       </c>
@@ -1556,7 +1564,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>91340</v>
       </c>
@@ -1606,7 +1614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>91340</v>
       </c>
@@ -1656,7 +1664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>91340</v>
       </c>
@@ -1706,7 +1714,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>91340</v>
       </c>
@@ -1756,7 +1764,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>91340</v>
       </c>
@@ -1806,7 +1814,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>91340</v>
       </c>
@@ -1856,7 +1864,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>91340</v>
       </c>
@@ -1906,7 +1914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>91340</v>
       </c>
@@ -1956,7 +1964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>91340</v>
       </c>
@@ -2006,7 +2014,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>91340</v>
       </c>
@@ -2056,7 +2064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>91340</v>
       </c>
@@ -2125,9 +2133,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2210,7 +2218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>92600</v>
       </c>
@@ -2266,7 +2274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>92600</v>
       </c>
@@ -2322,7 +2330,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>92600</v>
       </c>
@@ -2378,7 +2386,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>92600</v>
       </c>
@@ -2434,7 +2442,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>92600</v>
       </c>
@@ -2490,7 +2498,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>92600</v>
       </c>
@@ -2546,7 +2554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>92600</v>
       </c>
@@ -2602,7 +2610,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>92600</v>
       </c>
@@ -2658,7 +2666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>92600</v>
       </c>
@@ -2708,7 +2716,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>92600</v>
       </c>
@@ -2774,12 +2782,12 @@
   <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AA11"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2862,7 +2870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>92601</v>
       </c>
@@ -2909,7 +2917,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>92601</v>
       </c>
@@ -2956,7 +2964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>92601</v>
       </c>
@@ -3003,7 +3011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>92601</v>
       </c>
@@ -3050,7 +3058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>92601</v>
       </c>
@@ -3097,7 +3105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>92601</v>
       </c>
@@ -3144,7 +3152,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>92601</v>
       </c>
@@ -3191,7 +3199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>92601</v>
       </c>
@@ -3238,7 +3246,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>92601</v>
       </c>
@@ -3285,7 +3293,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>92601</v>
       </c>
@@ -3351,9 +3359,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>50</v>
       </c>
@@ -3391,7 +3399,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -3432,7 +3440,7 @@
         <v>16.238914999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -3473,7 +3481,7 @@
         <v>11.156886999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -3514,7 +3522,7 @@
         <v>68.704633283689205</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3555,7 +3563,7 @@
         <v>10.806795999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -3596,7 +3604,7 @@
         <v>7.1133329999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -3637,7 +3645,7 @@
         <v>65.822774853897499</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -3678,7 +3686,7 @@
         <v>5.4321190000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -3719,7 +3727,7 @@
         <v>4.0435539999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3769,13 +3777,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9076944-121A-493C-A4F1-80BE527339F2}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -3807,7 +3815,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -3839,7 +3847,7 @@
         <v>74.8947</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3871,7 +3879,7 @@
         <v>31.038239999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -3903,7 +3911,7 @@
         <v>90.398380000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -3935,7 +3943,7 @@
         <v>58.375050000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -3977,12 +3985,12 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>69</v>
       </c>
@@ -4029,7 +4037,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -4079,7 +4087,7 @@
         <v>63.601255379308597</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -4129,7 +4137,7 @@
         <v>68.629663644251394</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -4177,6 +4185,267 @@
       </c>
       <c r="P4">
         <v>66.142025809356198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7A18F6-974F-4C6A-A1A0-2F492C8F0B7B}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B141792D-539F-43DF-A847-5F9F6AAA1703}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2012</v>
+      </c>
+      <c r="B2">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2013</v>
+      </c>
+      <c r="B3">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2014</v>
+      </c>
+      <c r="B4">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2015</v>
+      </c>
+      <c r="B5">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2016</v>
+      </c>
+      <c r="B6">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2019</v>
+      </c>
+      <c r="B9">
+        <v>61.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E0804B-815E-4A6E-AD45-708355915DD5}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2022</v>
+      </c>
+      <c r="B7">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Screening_Data.xlsx
+++ b/Data/Screening_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icracuk-my.sharepoint.com/personal/reuben_frost_icr_ac_uk/Documents/Documents/UK-cancer-trends/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{8C5F391A-6835-49B6-98E1-804679C86803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E558FA59-9C32-4158-A4DF-B0B6DDD27716}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{8C5F391A-6835-49B6-98E1-804679C86803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA05F883-589E-4B45-A183-1B53CA5A6EE9}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="105" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{FD99B867-2ED7-4AC9-A608-E7C310AF8395}"/>
+    <workbookView xWindow="-38520" yWindow="105" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="9" xr2:uid="{FD99B867-2ED7-4AC9-A608-E7C310AF8395}"/>
   </bookViews>
   <sheets>
     <sheet name="England_Breast_Uptake" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Wales_Breast_Uptake" sheetId="7" r:id="rId7"/>
     <sheet name="Wales_Bowel_Uptake" sheetId="9" r:id="rId8"/>
     <sheet name="NIreland_Breast_Uptake" sheetId="8" r:id="rId9"/>
+    <sheet name="NIreland_Bowel_Uptake" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="89">
   <si>
     <t>Indicator ID</t>
   </si>
@@ -2125,6 +2126,69 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5EA58C-FFE9-4219-97F5-99E2371F40D7}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3">
+        <v>53.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2020</v>
+      </c>
+      <c r="B4">
+        <v>57.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2021</v>
+      </c>
+      <c r="B5">
+        <v>62.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2022</v>
+      </c>
+      <c r="B6">
+        <v>57.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A743EDD3-1007-4C45-ABEA-B024FB55C013}">
   <dimension ref="A1:AA11"/>
@@ -4297,10 +4361,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B141792D-539F-43DF-A847-5F9F6AAA1703}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4375,6 +4439,22 @@
       </c>
       <c r="B9">
         <v>61.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2020</v>
+      </c>
+      <c r="B10">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2021</v>
+      </c>
+      <c r="B11">
+        <v>67.2</v>
       </c>
     </row>
   </sheetData>
@@ -4387,7 +4467,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
